--- a/biology/Botanique/Guaiacum/Guaiacum.xlsx
+++ b/biology/Botanique/Guaiacum/Guaiacum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Guaiacum est un genre de plantes de la famille des Zygophyllaceae. Il est composé d'environ 6 espèces d'arbres ou d'arbustes à feuillage persistant. Ces espèces sont originaires des Antilles et d'Amérique centrale. 
 Plusieurs espèces (mais particulièrement Guaiacum officinale et Guaiacum sanctum) fournissent un bois très connu, le gaïac ou lignum vitae (bois de vie). Ce bois est très dur et dense et est utilisé pour des applications spéciales. La résine de ce bois est utilisée pour ses vertus médicinales depuis plus de 5 siècles.
@@ -513,12 +525,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Guaiacum angustifolium Engelm. - Originaire du Mexique et de l'ouest du Texas
 Guaiacum coulteri - originaire du Mexique
-Guaiacum officinale - Lignum vitae (sa fleur est un emblème national de la Jamaïque[1])
-Guaiacum sanctum L. - Lignum vitae (arbre national des Bahamas[2])
+Guaiacum officinale - Lignum vitae (sa fleur est un emblème national de la Jamaïque)
+Guaiacum sanctum L. - Lignum vitae (arbre national des Bahamas)
 Guaiacum unijugum - endémique de Baja California au Mexique</t>
         </is>
       </c>
